--- a/BT345/Bài tập 5.1.xlsx
+++ b/BT345/Bài tập 5.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uithcm-my.sharepoint.com/personal/hiendh_hcmuit_edu_vn/Documents/UIT/Giang Day/[NT213] Bao mat Web va Ung dung/BM Web - Ung dung/001. BaiGiang-2022/05 - SQLi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT345\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="11_F25DC773A252ABDACC10487EC9DB57185ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AACB3EC-57A8-4E5B-8D4F-138A0C8CF87F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940779B2-978E-4987-AFE2-A965A80734AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>VIẾT WRITEUP CHO CÁC BÀI CTF</t>
   </si>
@@ -124,13 +124,16 @@
   </si>
   <si>
     <t>https://www.root-me.org/en/Challenges/Web-Server/SQL-injection-Filter-bypass</t>
+  </si>
+  <si>
+    <t>t0_W34k!$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +160,20 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,10 +208,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -213,8 +231,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -496,7 +517,7 @@
   <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -539,21 +560,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
+      <c r="E5" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -753,7 +774,10 @@
   <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{20F51AB0-CF0E-4B45-9FE2-EC673C28E936}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/BT345/Bài tập 5.1.xlsx
+++ b/BT345/Bài tập 5.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT345\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940779B2-978E-4987-AFE2-A965A80734AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D92C9E9-1A01-4CB3-BB7D-759F77D80A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>VIẾT WRITEUP CHO CÁC BÀI CTF</t>
   </si>
@@ -127,13 +127,19 @@
   </si>
   <si>
     <t>t0_W34k!$</t>
+  </si>
+  <si>
+    <t>iMDaFlag1337!</t>
+  </si>
+  <si>
+    <t>c4K04dtIaJsuWdi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +181,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF212120"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -212,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -228,11 +240,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -517,7 +530,7 @@
   <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -526,19 +539,19 @@
     <col min="2" max="2" width="31.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="69.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -567,13 +580,13 @@
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="5"/>
@@ -592,11 +605,11 @@
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -609,8 +622,8 @@
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>7</v>
+      <c r="E7" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="F7" s="5"/>
     </row>
